--- a/target/classes/Demo1.xlsx
+++ b/target/classes/Demo1.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14115" windowHeight="6570" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14115" windowHeight="6570"/>
   </bookViews>
   <sheets>
     <sheet name="statusCode_200" sheetId="3" r:id="rId1"/>
     <sheet name="statusCode_400" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:K19"/>
+  <oleSize ref="A1:I19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="22">
-  <si>
-    <t>Test case name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="32">
   <si>
     <t>Response</t>
   </si>
@@ -59,9 +56,6 @@
     <t>1g</t>
   </si>
   <si>
-    <t>HAI</t>
-  </si>
-  <si>
     <t>Accounting1</t>
   </si>
   <si>
@@ -80,13 +74,49 @@
     <t>hanhtesst90@gmail.com</t>
   </si>
   <si>
+    <t>firstName1</t>
+  </si>
+  <si>
+    <t>firstName2</t>
+  </si>
+  <si>
+    <t>lastName1</t>
+  </si>
+  <si>
+    <t>programme1</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>test005@gmail.com</t>
+  </si>
+  <si>
+    <t>test006@gmail.com</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>{"msg":"Student added"}</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
     <t>500</t>
   </si>
   <si>
+    <t>{"error":"Please correct the following errors","fieldErrors":{"programme":"may not be empty"}}</t>
+  </si>
+  <si>
     <t>{"error":"Please correct the following errors","fieldErrors":{"firstName":"may not be empty","programme":"may not be empty","email":"may not be empty"}}</t>
+  </si>
+  <si>
+    <t>{"error":"Email address already exists"}</t>
   </si>
 </sst>
 </file>
@@ -478,111 +508,126 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection sqref="A1:J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" customWidth="true" width="15.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.125" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="8.25" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="10.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="10.375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.25" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="11.875" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="10.625" collapsed="true"/>
     <col min="7" max="7" customWidth="true" width="12.0" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="10.21484375" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="13.12890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="129.375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="78.6484375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="9.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -598,113 +643,135 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="16.25" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.875" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" width="8.25" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="9.5" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.75" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.25" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="10.75" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.25" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="13.25" collapsed="true"/>
-    <col min="9" max="10" bestFit="true" customWidth="true" width="8.875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="10.21484375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="13.12890625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="129.375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="E3" s="1"/>
       <c r="F3" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="4" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="H4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
@@ -714,9 +781,15 @@
       <c r="E5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/target/classes/Demo1.xlsx
+++ b/target/classes/Demo1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14115" windowHeight="6570"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14115" windowHeight="6570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="statusCode_200" sheetId="3" r:id="rId1"/>
@@ -123,7 +123,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -498,7 +497,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -506,25 +505,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="8.25" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="10.25" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="10.375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.25" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="11.875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="12.0" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.21484375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.12890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="78.6484375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="8.25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="10.25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.25" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="11.875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="78.625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -643,20 +642,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="9.5" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.75" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.25" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="10.75" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="10.25" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="10.21484375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.12890625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="129.375" collapsed="true"/>
+    <col min="3" max="3" width="9.5" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.75" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="10.75" customWidth="1" collapsed="1"/>
+    <col min="7" max="8" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="129.375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
